--- a/data/ECB/nomenclature.xlsx
+++ b/data/ECB/nomenclature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="5740" yWindow="140" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Dataset name: Indices of Consumer Prices</t>
   </si>
@@ -58,13 +58,79 @@
   </si>
   <si>
     <t>Period\Unit:,[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100],[2005 = 100]</t>
+  </si>
+  <si>
+    <t>HICP</t>
+  </si>
+  <si>
+    <t>Dataset name: Exchange Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Currency: US dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Currency denominator: Euro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exchange rate type: Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Series variation - EXR context: Average or standardised measure for given frequency</t>
+  </si>
+  <si>
+    <t>,EXR.M.USD.EUR.SP00.A</t>
+  </si>
+  <si>
+    <t>,"ECB reference exchange rate, US dollar/Euro, 2:15 pm (C.E.T.)"</t>
+  </si>
+  <si>
+    <t>Collection:,Average of observations through period (A)</t>
+  </si>
+  <si>
+    <t>Period\Unit:,[US dollar ]</t>
+  </si>
+  <si>
+    <t>exchange rate</t>
+  </si>
+  <si>
+    <t>Dataset name: Exchange Rates; Frequency: Monthly; Currency: Euro area-17 countries vis-a-vis the EER-40 group of trading partners (AU, CA, DK, HK, JP, NO, SG, KR, SE, CH, GB, US, BG, CZ, LV, LT, HU, PL, RO, CN, DZ, AR, BR, CL, HR, IS, IN, ID, IL, MY, MX, MA, NZ, PH, RU, ZA, TW, TH, TR and VE); Currency denominator: Euro; Exchange rate type: Nominal effective exch. rate; Series variation - EXR context: Average or standardised measure for given frequency</t>
+  </si>
+  <si>
+    <t>,EXR.M.Z65.EUR.EN00.A</t>
+  </si>
+  <si>
+    <t>,"ECB Nominal effective exch. rate, Euro area-17 countries vis-a-vis the EER-40 group of trading partners (AU, CA, DK, HK, JP, NO, SG, KR, SE, CH, GB, US, BG, CZ, LV, LT, HU, PL, RO, CN, DZ, AR, BR, CL, HR, IS, IN, ID, IL, MY, MX, MA, NZ, PH, RU, ZA, TW, TH, TR and VE) against Euro"</t>
+  </si>
+  <si>
+    <t>Period\Unit:,[99Q1=100]</t>
+  </si>
+  <si>
+    <t>NEER</t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>Dataset name: Short-Term Statistics; Frequency: Monthly; Adjustment indicator: Seasonally adjusted, not working day adjusted; Concept - STS context: Standardised unemployment; Classification - STS context: Rate, Total (all ages), Total (male and female); Institution originating the data flow: Eurostat; Series variation - STS context: unspecified</t>
+  </si>
+  <si>
+    <t>,STS.M.AT.S.UNEH.RTT000.4.000,STS.M.BE.S.UNEH.RTT000.4.000,STS.M.DE.S.UNEH.RTT000.4.000,STS.M.DK.S.UNEH.RTT000.4.000,STS.M.ES.S.UNEH.RTT000.4.000,STS.M.FI.S.UNEH.RTT000.4.000,STS.M.FR.S.UNEH.RTT000.4.000,STS.M.GB.S.UNEH.RTT000.4.000,STS.M.GR.S.UNEH.RTT000.4.000,STS.M.IE.S.UNEH.RTT000.4.000,STS.M.IT.S.UNEH.RTT000.4.000,STS.M.LU.S.UNEH.RTT000.4.000,STS.M.NL.S.UNEH.RTT000.4.000,STS.M.PT.S.UNEH.RTT000.4.000,STS.M.SE.S.UNEH.RTT000.4.000</t>
+  </si>
+  <si>
+    <t>,Austria,Belgium,Germany,Denmark,Spain,Finland,France,United Kingdom (GB),Greece (GR),Ireland,Italy,Luxembourg,Netherlands,Portugal,Sweden</t>
+  </si>
+  <si>
+    <t>Collection:,Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A),Average of observations through period (A)</t>
+  </si>
+  <si>
+    <t>Period\Unit:,[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,13 +138,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,86 +507,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/ECB/nomenclature.xlsx
+++ b/data/ECB/nomenclature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="140" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Period\Unit:,[US dollar ]</t>
   </si>
   <si>
-    <t>exchange rate</t>
-  </si>
-  <si>
     <t>Dataset name: Exchange Rates; Frequency: Monthly; Currency: Euro area-17 countries vis-a-vis the EER-40 group of trading partners (AU, CA, DK, HK, JP, NO, SG, KR, SE, CH, GB, US, BG, CZ, LV, LT, HU, PL, RO, CN, DZ, AR, BR, CL, HR, IS, IN, ID, IL, MY, MX, MA, NZ, PH, RU, ZA, TW, TH, TR and VE); Currency denominator: Euro; Exchange rate type: Nominal effective exch. rate; Series variation - EXR context: Average or standardised measure for given frequency</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Period\Unit:,[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ],[Percent ]</t>
+  </si>
+  <si>
+    <t>exchange rate $/€</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -641,22 +641,22 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -666,37 +666,37 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/ECB/nomenclature.xlsx
+++ b/data/ECB/nomenclature.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
